--- a/biology/Botanique/Parc_de_Bréquigny/Parc_de_Bréquigny.xlsx
+++ b/biology/Botanique/Parc_de_Bréquigny/Parc_de_Bréquigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_Br%C3%A9quigny</t>
+          <t>Parc_de_Bréquigny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Bréquigny est un parc situé au sud-ouest de la ville de Rennes dans le département français d'Ille-et-Vilaine en région Bretagne. Il se situe au nord de la rocade de Rennes, au sud du quartier Bréquigny, à proximité des Chalais et du centre Alma.
 Il s’étend sur 20 hectares et a été aménagé entre 1969 et 1980.
 Le Blosne traverse le parc et forme un marais.
-On y trouve « Il était une fois dans un pays lointain » une œuvre de l'artiste d'origine égyptienne Ghada Amer de 2007[1],[2].
+On y trouve « Il était une fois dans un pays lointain » une œuvre de l'artiste d'origine égyptienne Ghada Amer de 2007,.
 </t>
         </is>
       </c>
